--- a/src/test/resources/testdata/excels/Adactin Master Test Data.xlsx
+++ b/src/test/resources/testdata/excels/Adactin Master Test Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\003LiveTechWS\HybridFrameWork\src\test\resources\testdata\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18AA57C2-E95A-4619-B55F-8714396249D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1F0854-7190-4A27-A619-3B31515BA436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{ECA7341F-7CE3-4EA7-B2BF-C9C26B540FCF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ECA7341F-7CE3-4EA7-B2BF-C9C26B540FCF}"/>
   </bookViews>
   <sheets>
     <sheet name="com.adactin" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="49">
   <si>
     <t>username</t>
   </si>
@@ -164,6 +164,27 @@
   </si>
   <si>
     <t>https://opensource-demo.orangehrmlive.com/web/index.php/dashboard/index</t>
+  </si>
+  <si>
+    <t>TC-103</t>
+  </si>
+  <si>
+    <t>Expected URL2</t>
+  </si>
+  <si>
+    <t>Expected URL1</t>
+  </si>
+  <si>
+    <t>https://opensource-demo.orangehrmlive.com/web/index.php/auth/login</t>
+  </si>
+  <si>
+    <t>Expected Title</t>
+  </si>
+  <si>
+    <t>Adactin.com - New User Registration</t>
+  </si>
+  <si>
+    <t>TC-104</t>
   </si>
 </sst>
 </file>
@@ -555,19 +576,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F60D7BE3-F58C-48C7-9CF8-78F7EA9FAAFB}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="67.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="104.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.21875" style="1" bestFit="1" customWidth="1"/>
@@ -734,14 +755,102 @@
         <v>35</v>
       </c>
     </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F5" r:id="rId1" xr:uid="{339D628B-76D7-4244-B40A-3F8AEE44D028}"/>
     <hyperlink ref="D2" r:id="rId2" xr:uid="{DC7FF32D-6A9E-4BF5-ACDE-DA17D3AD8509}"/>
+    <hyperlink ref="D11" r:id="rId3" xr:uid="{D381137E-4100-425B-8A49-83A0287C79A2}"/>
+    <hyperlink ref="G14" r:id="rId4" xr:uid="{1D05F175-2CFD-494D-99C2-3A5DBCEE91BF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -1096,7 +1205,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C8E2E0-C805-4853-AAA9-702DB2F8B25B}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
